--- a/biology/Biochimie/Fructose-2,6-bisphosphate/Fructose-2,6-bisphosphate.xlsx
+++ b/biology/Biochimie/Fructose-2,6-bisphosphate/Fructose-2,6-bisphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fructose-2,6-bisphosphate (Fru-2,6-BP), souvent appelé fructose-2,6-diphosphate, est un composé organique présent dans de très nombreuses cellules vivantes où il joue notamment le rôle d'activateur allostérique de la phosphofructokinase-1 (PFK-1), une enzyme intervenant dans la glycolyse pour convertir le fructose-6-phosphate (Fru-6-P) en fructose-1,6-bisphosphate (Fru-1,6-BP), et d'inhibiteur allostérique de la Fructose-1,6-bisphosphatase une enzyme intervenant dans la néoglucogenèse pour convertir le fructose-1,6-bisphosphate en fructose-6-phosphate. Il fait donc le relais entre la néoglucogenèse et la glycolyse. Il est formé à partir de Fru-6-P par la phosphofructokinase-2, une enzyme elle-même inhibée par le glucagon (qui ralentit la glycolyse et stimule la synthese du glucose dans le foie) via l'AMPc.
